--- a/biology/Zoologie/Cotentine/Cotentine.xlsx
+++ b/biology/Zoologie/Cotentine/Cotentine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cotentine est une race de poule domestique. 
@@ -512,7 +524,9 @@
           <t>Autre sens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cotentine était aussi jadis le nom d'une race bovine aujourd'hui éteinte.
 </t>
@@ -543,15 +557,87 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est une race de poule de type fermier fière et élégante, élevée à deux fins (chair et ponte).
-Origine
-Comme son nom l'indique, elle est originaire de la presqu'île du Cotentin en Normandie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race de poule de type fermier fière et élégante, élevée à deux fins (chair et ponte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cotentine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotentine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, elle est originaire de la presqu'île du Cotentin en Normandie.
 Elle est issue de poules locales noires mélangées avec des races importées par les marins, d'Angleterre et d'ailleurs.
 Elle avait disparu, mais elle fut reconstituée et est actuellement élevée par des éleveurs regroupés en clubs.
-Standard
-Masse idéale : coq : 3 à 3,5 kg ; poule : 2 à 2,5 kg
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotentine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotentine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Masse idéale : coq : 3 à 3,5 kg ; poule : 2 à 2,5 kg
 Crête : simple
 Oreillons : rouges
 Couleur des yeux : rouge orangé
@@ -563,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cotentine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cotentine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Clubs officiels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Club pour la sauvegarde des races avicoles normandes
 Le club de la Cotentine
